--- a/FN-Data.xlsx
+++ b/FN-Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Main server_1\0. MASS PRODUCTION\DATA-4-WebApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30297E7C-F8A9-444C-808E-A6133360A79E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46440B6-AC62-46F7-8078-DF17B1BCC46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6BD9624-5701-43A0-9FEA-992F33EC59DC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="215">
   <si>
     <t>PartNo</t>
   </si>
@@ -1230,7 +1230,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9C9234A-C47C-4912-BACC-97EE05816D2E}" name="Table1" displayName="Table1" ref="B4:N74" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="B4:N74" xr:uid="{58ABC222-E705-4CA1-A5DE-9F59BF7F93FC}"/>
+  <autoFilter ref="B4:N74" xr:uid="{58ABC222-E705-4CA1-A5DE-9F59BF7F93FC}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="9680"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{DA991FAF-429F-4A8B-8886-7E6B4661D5DF}" name="PartNo" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{C195917B-CC46-4BFF-9143-E591BD629BAC}" name="Week" dataDxfId="11"/>
@@ -1550,8 +1556,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B4:N74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
@@ -1940,7 +1946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>33</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
@@ -2391,7 +2397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>33</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>39</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>33</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>14</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>39</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>34</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>39</v>
       </c>
@@ -2842,7 +2848,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
@@ -2924,7 +2930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -2987,8 +2993,8 @@
       <c r="H38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="9" t="s">
-        <v>57</v>
+      <c r="I38" s="9">
+        <v>207</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>164</v>
@@ -3006,7 +3012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>35</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>33</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>33</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>53</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>15</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -3375,7 +3381,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>39</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>34</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>33</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>15</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>3</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>39</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>18</v>
       </c>
@@ -3703,7 +3709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>35</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>33</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>15</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>34</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>39</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>34</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>33</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>15</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>34</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>54</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>54</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>35</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>4</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>3</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
       <c r="D74" s="13"/>
